--- a/NformTester/NformTester/Keywordscripts/600.60.20.110_InteractionBetweenPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.110_InteractionBetweenPolling.xlsx
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8066" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8070" uniqueCount="885">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3965,6 +3965,9 @@
   <si>
     <t>;Verify that: the status of all the devices should be 'Priority'and could set different priority for different devices.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globally_disabled_txt</t>
   </si>
 </sst>
 </file>
@@ -4196,7 +4199,21 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4501,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4709,7 +4726,7 @@
         <v>823</v>
       </c>
       <c r="B7" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4807,7 +4824,7 @@
         <v>450</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>2</v>
@@ -4833,7 +4850,7 @@
         <v>450</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>2</v>
@@ -4846,7 +4863,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>826</v>
       </c>
@@ -4854,12 +4871,18 @@
       <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4868,7 +4891,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="2" t="s">
         <v>827</v>
       </c>
@@ -4876,18 +4899,12 @@
       <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="9"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4911,10 +4928,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>853</v>
+        <v>22</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>854</v>
+        <v>2</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="4"/>
@@ -4935,18 +4952,16 @@
       <c r="D15" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>632</v>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>633</v>
+        <v>853</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>870</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4969,12 +4984,14 @@
         <v>632</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>870</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -4994,23 +5011,17 @@
         <v>838</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>583</v>
+        <v>205</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J17" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -5031,14 +5042,20 @@
         <v>571</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>100</v>
+        <v>583</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J18" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -5056,7 +5073,7 @@
         <v>838</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>100</v>
@@ -5083,24 +5100,26 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>838</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" ht="15">
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>835</v>
       </c>
@@ -5108,21 +5127,25 @@
       <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="2" t="s">
         <v>836</v>
       </c>
@@ -5130,18 +5153,12 @@
       <c r="C22" s="4">
         <v>21</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D22" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="9"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -5158,10 +5175,10 @@
         <v>838</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>873</v>
+        <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>2</v>
@@ -5182,10 +5199,10 @@
         <v>838</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>450</v>
+        <v>873</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
@@ -5209,7 +5226,7 @@
         <v>450</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>2</v>
@@ -5233,14 +5250,12 @@
         <v>450</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>874</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -5259,12 +5274,14 @@
         <v>450</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>874</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -5272,16 +5289,22 @@
       <c r="M27" s="4"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:14">
       <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -5290,22 +5313,16 @@
       <c r="M28" s="4"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" ht="15">
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D29" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="9"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5325,10 +5342,10 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>853</v>
+        <v>22</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>854</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="4"/>
@@ -5345,18 +5362,16 @@
       <c r="D31" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>632</v>
+      <c r="E31" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>633</v>
+        <v>853</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>870</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5375,12 +5390,14 @@
         <v>632</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>870</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5396,23 +5413,17 @@
         <v>838</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>585</v>
+        <v>205</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J33" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -5429,14 +5440,20 @@
         <v>571</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>100</v>
+        <v>585</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J34" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -5450,7 +5467,7 @@
         <v>838</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>100</v>
@@ -5471,57 +5488,57 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>838</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="3:14" ht="15">
+    <row r="37" spans="3:14">
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="4"/>
+      <c r="D37" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" ht="15">
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D38" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="9"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5538,10 +5555,10 @@
         <v>838</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>873</v>
+        <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
@@ -5562,10 +5579,10 @@
         <v>838</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>450</v>
+        <v>873</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>2</v>
@@ -5589,7 +5606,7 @@
         <v>450</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>2</v>
@@ -5613,14 +5630,12 @@
         <v>450</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>879</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" s="9"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5639,12 +5654,14 @@
         <v>450</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>17</v>
+        <v>501</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>879</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5652,16 +5669,22 @@
       <c r="M43" s="4"/>
       <c r="N43" s="14"/>
     </row>
-    <row r="44" spans="3:14" ht="15">
+    <row r="44" spans="3:14">
       <c r="C44" s="4">
         <v>43</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="D44" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H44" s="9"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5670,22 +5693,16 @@
       <c r="M44" s="4"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" ht="15">
       <c r="C45" s="4">
         <v>44</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D45" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="9"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5705,10 +5722,10 @@
         <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>853</v>
+        <v>22</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>854</v>
+        <v>2</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="4"/>
@@ -5725,18 +5742,16 @@
       <c r="D47" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>632</v>
+      <c r="E47" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>633</v>
+        <v>853</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>870</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="H47" s="9"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -5755,12 +5770,14 @@
         <v>632</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>870</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5776,23 +5793,17 @@
         <v>838</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>501</v>
+        <v>205</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J49" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -5809,14 +5820,20 @@
         <v>571</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>100</v>
+        <v>501</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J50" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -5830,7 +5847,7 @@
         <v>838</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>100</v>
@@ -5851,57 +5868,57 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4"/>
+        <v>838</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="3:14" ht="15">
+    <row r="53" spans="3:14">
       <c r="C53" s="4">
         <v>52</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="4"/>
+      <c r="D53" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="9"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="3:14">
+    <row r="54" spans="3:14" ht="15">
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D54" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="9"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5918,10 +5935,10 @@
         <v>838</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>873</v>
+        <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>2</v>
@@ -5942,10 +5959,10 @@
         <v>838</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>450</v>
+        <v>873</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>2</v>
@@ -5969,7 +5986,7 @@
         <v>450</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>2</v>
@@ -5993,7 +6010,7 @@
         <v>450</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>17</v>
+        <v>499</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>2</v>
@@ -6006,16 +6023,22 @@
       <c r="M58" s="4"/>
       <c r="N58" s="14"/>
     </row>
-    <row r="59" spans="3:14" ht="15">
+    <row r="59" spans="3:14">
       <c r="C59" s="4">
         <v>58</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="D59" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H59" s="9"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6024,22 +6047,16 @@
       <c r="M59" s="4"/>
       <c r="N59" s="14"/>
     </row>
-    <row r="60" spans="3:14">
+    <row r="60" spans="3:14" ht="15">
       <c r="C60" s="4">
         <v>59</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D60" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="9"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6059,10 +6076,10 @@
         <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>853</v>
+        <v>22</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>854</v>
+        <v>2</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="4"/>
@@ -6079,18 +6096,16 @@
       <c r="D62" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>632</v>
+      <c r="E62" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>633</v>
+        <v>853</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>870</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="H62" s="9"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -6109,12 +6124,14 @@
         <v>632</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>870</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -6130,13 +6147,13 @@
         <v>838</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>586</v>
+        <v>205</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="4"/>
@@ -6157,10 +6174,10 @@
         <v>571</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>100</v>
+        <v>884</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="4"/>
@@ -6178,7 +6195,7 @@
         <v>838</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>100</v>
@@ -6199,57 +6216,57 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>838</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="3:14" ht="15">
+    <row r="68" spans="3:14">
       <c r="C68" s="4">
         <v>67</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="4"/>
+      <c r="D68" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
       <c r="G68" s="4"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="4"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="3:14">
+    <row r="69" spans="3:14" ht="15">
       <c r="C69" s="4">
         <v>68</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D69" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="9"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -6269,7 +6286,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>2</v>
@@ -6290,10 +6307,10 @@
         <v>838</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>2</v>
@@ -6317,7 +6334,7 @@
         <v>450</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>2</v>
@@ -6341,7 +6358,7 @@
         <v>450</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>2</v>
@@ -6354,16 +6371,22 @@
       <c r="M73" s="4"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="3:14" ht="15">
+    <row r="74" spans="3:14">
       <c r="C74" s="4">
         <v>73</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="D74" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H74" s="9"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6372,22 +6395,16 @@
       <c r="M74" s="4"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="3:14">
+    <row r="75" spans="3:14" ht="15">
       <c r="C75" s="4">
         <v>74</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D75" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="9"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6407,10 +6424,10 @@
         <v>19</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>853</v>
+        <v>22</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>854</v>
+        <v>2</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="4"/>
@@ -6427,18 +6444,16 @@
       <c r="D77" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>632</v>
+      <c r="E77" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>633</v>
+        <v>853</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>870</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="H77" s="9"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -6457,12 +6472,14 @@
         <v>632</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>870</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -6478,10 +6495,10 @@
         <v>838</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>584</v>
+        <v>205</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>2</v>
@@ -6508,17 +6525,11 @@
         <v>584</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J80" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -6535,14 +6546,20 @@
         <v>571</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>100</v>
+        <v>584</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J81" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -6556,7 +6573,7 @@
         <v>838</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>100</v>
@@ -6577,17 +6594,19 @@
         <v>82</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4"/>
+        <v>838</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6599,19 +6618,17 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="4"/>
+      <c r="I84" s="9"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -6629,10 +6646,10 @@
         <v>19</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>853</v>
+        <v>22</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>854</v>
+        <v>2</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="4"/>
@@ -6649,18 +6666,16 @@
       <c r="D86" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>632</v>
+      <c r="E86" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>633</v>
+        <v>853</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>882</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="H86" s="9"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -6679,12 +6694,14 @@
         <v>632</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>205</v>
+        <v>633</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>882</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -6700,10 +6717,10 @@
         <v>838</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>583</v>
+        <v>205</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>2</v>
@@ -6730,17 +6747,11 @@
         <v>583</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J89" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
@@ -6757,14 +6768,20 @@
         <v>571</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>100</v>
+        <v>583</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="J90" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -6778,7 +6795,7 @@
         <v>838</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>100</v>
@@ -6799,54 +6816,56 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="F92" s="4">
-        <v>1</v>
-      </c>
-      <c r="G92" s="4"/>
+        <v>838</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="14"/>
     </row>
-    <row r="93" spans="3:14" ht="15">
+    <row r="93" spans="3:14">
       <c r="C93" s="4">
         <v>92</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="4"/>
+      <c r="D93" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
       <c r="G93" s="4"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="4"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="3:14">
+    <row r="94" spans="3:14" ht="15">
       <c r="C94" s="4">
         <v>93</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F94" s="4">
-        <v>2</v>
-      </c>
+      <c r="D94" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="9"/>
       <c r="I94" s="4"/>
@@ -6861,19 +6880,17 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6891,7 +6908,7 @@
         <v>19</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>2</v>
@@ -6909,28 +6926,26 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>852</v>
+        <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="I97" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="3:14" ht="14.25">
+    <row r="98" spans="3:14">
       <c r="C98" s="4">
         <v>97</v>
       </c>
@@ -6941,12 +6956,14 @@
         <v>852</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>215</v>
+        <v>633</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H98" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>845</v>
+      </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -6954,23 +6971,23 @@
       <c r="M98" s="4"/>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="3:14">
+    <row r="99" spans="3:14" ht="14.25">
       <c r="C99" s="4">
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>640</v>
+      <c r="E99" s="9" t="s">
+        <v>852</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="15"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -6985,26 +7002,50 @@
       <c r="D100" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>852</v>
+      <c r="E100" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="14"/>
     </row>
+    <row r="101" spans="3:14">
+      <c r="C101" s="4">
+        <v>100</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N100">
+  <conditionalFormatting sqref="N2:N101">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7013,16 +7054,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F93:F100 F7:F19 F2:F5 F22:F35 F38:F51 F54:F66 F84:F91 F69:F82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F94:F101 F2:F5 F23:F36 F39:F52 F55:F67 F85:F92 F70:F83 F7:F20">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98:G100 G2:G96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G99:G101 G2:G97">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D95:D96 D7:D11 D69:D73 D60:D67 D29:D36 D38:D43 D22:D27 D45:D52 D13:D20 D3 D54:D58 D75:D92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D96:D97 D70:D74 D61:D68 D30:D37 D39:D44 D23:D28 D46:D53 D14:D21 D55:D59 D76:D93 D7:D12 D3">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E101">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.60.20.110_InteractionBetweenPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.110_InteractionBetweenPolling.xlsx
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8070" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8070" uniqueCount="886">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3968,6 +3968,9 @@
   </si>
   <si>
     <t>Globally_disabled_txt</t>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
   </si>
 </sst>
 </file>
@@ -4199,21 +4202,7 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4520,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="E70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4532,7 +4521,7 @@
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="29.25" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4990,7 +4979,7 @@
         <v>56</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5396,7 +5385,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5776,7 +5765,7 @@
         <v>56</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6130,7 +6119,7 @@
         <v>56</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6478,7 +6467,7 @@
         <v>56</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6700,7 +6689,7 @@
         <v>56</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
